--- a/EDA_DF/EPL_Rank_ML.xlsx
+++ b/EDA_DF/EPL_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.063084872025463</v>
+        <v>3.083590765972222</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>24.09433487202546</v>
+        <v>24.11484076597222</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.2089182053588</v>
+        <v>24.22942409930556</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.10475153869213</v>
+        <v>31.12525743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>52.06308487202546</v>
+        <v>52.08359076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>59.06308487202546</v>
+        <v>59.08359076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.06308487202547</v>
+        <v>80.08359076597222</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>98.91725153869211</v>
+        <v>98.93775743263888</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.0214182053588</v>
+        <v>102.0419240993055</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.0630848720255</v>
+        <v>108.0835907659722</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>116.0214182053588</v>
+        <v>116.0419240993055</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>118.9068348720255</v>
+        <v>118.9273407659722</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>122.0630848720255</v>
+        <v>122.0835907659722</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.2297515386921</v>
+        <v>130.2502574326389</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>157.1047515386921</v>
+        <v>157.1252574326389</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>178.1047515386921</v>
+        <v>178.1252574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>213.1047515386921</v>
+        <v>213.1252574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>213.2089182053588</v>
+        <v>213.2294240993056</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>339.1047515386921</v>
+        <v>339.1252574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>342.9589182053588</v>
+        <v>342.9794240993056</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.063084872025463</v>
+        <v>3.083590765972222</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>24.09433487202546</v>
+        <v>24.11484076597222</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.2089182053588</v>
+        <v>24.22942409930556</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>31.10475153869213</v>
+        <v>31.12525743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>52.06308487202546</v>
+        <v>52.08359076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>59.06308487202546</v>
+        <v>59.08359076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>80.06308487202547</v>
+        <v>80.08359076597222</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>98.91725153869211</v>
+        <v>98.93775743263888</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.0214182053588</v>
+        <v>102.0419240993055</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>108.0630848720255</v>
+        <v>108.0835907659722</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>116.0214182053588</v>
+        <v>116.0419240993055</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>118.9068348720255</v>
+        <v>118.9273407659722</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>122.0630848720255</v>
+        <v>122.0835907659722</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>130.2297515386921</v>
+        <v>130.2502574326389</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>157.1047515386921</v>
+        <v>157.1252574326389</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>178.1047515386921</v>
+        <v>178.1252574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>213.1047515386921</v>
+        <v>213.1252574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>213.2089182053588</v>
+        <v>213.2294240993056</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>339.1047515386921</v>
+        <v>339.1252574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>342.9589182053588</v>
+        <v>342.9794240993056</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.16725153869213</v>
+        <v>3.187757432638889</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.021418205358796</v>
+        <v>4.041924099305556</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.22975153869213</v>
+        <v>25.25025743263889</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.91725153869213</v>
+        <v>38.93775743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.0214182053588</v>
+        <v>46.04192409930555</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.22975153869213</v>
+        <v>53.25025743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.16725153869213</v>
+        <v>59.18775743263889</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>62.90683487202546</v>
+        <v>62.92734076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>63.90683487202546</v>
+        <v>63.92734076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.22975153869213</v>
+        <v>74.25025743263889</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>92.9589182053588</v>
+        <v>92.97942409930556</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.90683487202547</v>
+        <v>96.92734076597222</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>108.1672515386921</v>
+        <v>108.1877574326389</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1255848720255</v>
+        <v>109.1460907659722</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>118.9068348720255</v>
+        <v>118.9273407659722</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>123.1255848720255</v>
+        <v>123.1460907659722</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>164.1047515386921</v>
+        <v>164.1252574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>165.2714182053588</v>
+        <v>165.2919240993055</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>186.2714182053588</v>
+        <v>186.2919240993055</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.2089182053588</v>
+        <v>227.2294240993056</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>227.9589182053588</v>
+        <v>227.9794240993056</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>228.1672515386921</v>
+        <v>228.1877574326389</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>232.9589182053588</v>
+        <v>232.9794240993056</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>313.9589182053588</v>
+        <v>313.9794240993056</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.1255848720255</v>
+        <v>318.1460907659722</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>325.1047515386921</v>
+        <v>325.1252574326389</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.9589182053588</v>
+        <v>336.9794240993056</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -10416,7 +10416,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>343.9693348720255</v>
+        <v>343.9898407659722</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>354.2714182053588</v>
+        <v>354.2919240993056</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.0214182053588</v>
+        <v>25.04192409930556</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>42.12558487202546</v>
+        <v>42.14609076597223</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>42.97975153869213</v>
+        <v>43.00025743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>62.93808487202546</v>
+        <v>62.95859076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.9172515386921</v>
+        <v>102.9377574326389</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.1255848720255</v>
+        <v>144.1460907659722</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.1255848720255</v>
+        <v>144.1460907659722</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.1672515386921</v>
+        <v>157.1877574326389</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>157.1672515386921</v>
+        <v>157.1877574326389</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>158.1672515386921</v>
+        <v>158.1877574326389</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>193.1672515386921</v>
+        <v>193.1877574326389</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -12647,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>235.2714182053588</v>
+        <v>235.2919240993056</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>333.0630848720255</v>
+        <v>333.0835907659722</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>347.9589182053588</v>
+        <v>347.9794240993056</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>354.0630848720255</v>
+        <v>354.0835907659722</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.9485015386921296</v>
+        <v>0.9690074326388889</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.91725153869213</v>
+        <v>3.937757432638889</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.16725153869213</v>
+        <v>17.18775743263889</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.0214182053588</v>
+        <v>18.04192409930556</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>46.22975153869213</v>
+        <v>46.25025743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.16725153869213</v>
+        <v>52.18775743263889</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>57.91725153869213</v>
+        <v>57.93775743263889</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.90683487202546</v>
+        <v>61.92734076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>63.93808487202546</v>
+        <v>63.95859076597223</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.0214182053588</v>
+        <v>81.04192409930556</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -14672,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>94.16725153869213</v>
+        <v>94.18775743263889</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -14775,7 +14775,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.0214182053588</v>
+        <v>95.04192409930556</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>96.93808487202547</v>
+        <v>96.95859076597222</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>102.2297515386921</v>
+        <v>102.2502574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>108.1672515386921</v>
+        <v>108.1877574326389</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.9172515386921</v>
+        <v>109.9377574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>116.2297515386921</v>
+        <v>116.2502574326389</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>122.9172515386921</v>
+        <v>122.9377574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>129.1672515386921</v>
+        <v>129.1877574326389</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.0214182053588</v>
+        <v>130.0419240993055</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>143.0630848720255</v>
+        <v>143.0835907659722</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>144.2297515386921</v>
+        <v>144.2502574326389</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -15908,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.1672515386921</v>
+        <v>150.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.0214182053588</v>
+        <v>151.0419240993055</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.2297515386921</v>
+        <v>151.2502574326389</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.9589182053588</v>
+        <v>158.9794240993055</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.0630848720255</v>
+        <v>165.0835907659722</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>178.2089182053588</v>
+        <v>178.2294240993055</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>178.2089182053588</v>
+        <v>178.2294240993055</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -16629,7 +16629,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.0630848720255</v>
+        <v>186.0835907659722</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -16835,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>200.2714182053588</v>
+        <v>200.2919240993056</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>220.1047515386921</v>
+        <v>220.1252574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>225.9589182053588</v>
+        <v>225.9794240993056</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>228.0630848720255</v>
+        <v>228.0835907659722</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>234.1047515386921</v>
+        <v>234.1252574326389</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>234.2089182053588</v>
+        <v>234.2294240993056</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>235.0630848720255</v>
+        <v>235.0835907659722</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>314.9589182053588</v>
+        <v>314.9794240993056</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.0630848720255</v>
+        <v>319.0835907659722</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>332.0005848720255</v>
+        <v>332.0210907659722</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>332.1047515386921</v>
+        <v>332.1252574326389</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>341.9485015386921</v>
+        <v>341.9690074326389</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>342.9693348720255</v>
+        <v>342.9898407659722</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -18689,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>346.2089182053588</v>
+        <v>346.2294240993056</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -18895,7 +18895,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>353.1047515386921</v>
+        <v>353.1252574326389</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>353.2089182053588</v>
+        <v>353.2294240993056</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.9797515386921296</v>
+        <v>1.000257432638889</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>0.9797515386921296</v>
+        <v>1.000257432638889</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.22975153869213</v>
+        <v>4.250257432638889</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.91725153869213</v>
+        <v>22.93775743263889</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -19787,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.12558487202546</v>
+        <v>25.14609076597222</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -20096,7 +20096,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -20199,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -20508,7 +20508,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>50.91725153869213</v>
+        <v>50.93775743263889</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>53.0214182053588</v>
+        <v>53.04192409930555</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -20920,7 +20920,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.16725153869213</v>
+        <v>59.18775743263889</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>60.12558487202546</v>
+        <v>60.14609076597223</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>61.93808487202546</v>
+        <v>61.95859076597223</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>63.9276682053588</v>
+        <v>63.94817409930555</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>71.9276682053588</v>
+        <v>71.94817409930556</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>81.22975153869213</v>
+        <v>81.25025743263889</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>91.97975153869213</v>
+        <v>92.00025743263889</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>94.16725153869213</v>
+        <v>94.18775743263889</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>97.93808487202546</v>
+        <v>97.95859076597222</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>97.93808487202546</v>
+        <v>97.95859076597222</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>101.2089182053588</v>
+        <v>101.2294240993055</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -22465,7 +22465,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>103.9172515386921</v>
+        <v>103.9377574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>108.1672515386921</v>
+        <v>108.1877574326389</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>109.1255848720255</v>
+        <v>109.1460907659722</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>115.0630848720255</v>
+        <v>115.0835907659722</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>115.1672515386921</v>
+        <v>115.1877574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>117.9068348720255</v>
+        <v>117.9273407659722</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -23392,7 +23392,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>123.0214182053588</v>
+        <v>123.0419240993055</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>127.9172515386921</v>
+        <v>127.9377574326389</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>144.1255848720255</v>
+        <v>144.1460907659722</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>148.9172515386921</v>
+        <v>148.9377574326389</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>157.1672515386921</v>
+        <v>157.1877574326389</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>157.2089182053588</v>
+        <v>157.2294240993055</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>158.0630848720255</v>
+        <v>158.0835907659722</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>162.9589182053588</v>
+        <v>162.9794240993055</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>178.2089182053588</v>
+        <v>178.2294240993055</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>183.9589182053588</v>
+        <v>183.9794240993055</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>193.0630848720255</v>
+        <v>193.0835907659722</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>193.1672515386921</v>
+        <v>193.1877574326389</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>213.2089182053588</v>
+        <v>213.2294240993056</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>214.0630848720255</v>
+        <v>214.0835907659722</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>221.0630848720255</v>
+        <v>221.0835907659722</v>
       </c>
       <c r="AD63" t="n">
         <v>1</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>227.1047515386921</v>
+        <v>227.1252574326389</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>228.1672515386921</v>
+        <v>228.1877574326389</v>
       </c>
       <c r="AD66" t="n">
         <v>1</v>
@@ -25967,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD67" t="n">
         <v>1</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD69" t="n">
         <v>1</v>
@@ -26276,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>325.2089182053588</v>
+        <v>325.2294240993056</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>331.0630848720255</v>
+        <v>331.0835907659722</v>
       </c>
       <c r="AD72" t="n">
         <v>1</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>340.1672515386921</v>
+        <v>340.1877574326389</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>340.2714182053588</v>
+        <v>340.2919240993056</v>
       </c>
       <c r="AD75" t="n">
         <v>1</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>342.9797515386921</v>
+        <v>343.0002574326389</v>
       </c>
       <c r="AD76" t="n">
         <v>1</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>343.9797515386921</v>
+        <v>344.0002574326389</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD78" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -27409,7 +27409,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>361.1672515386921</v>
+        <v>361.1877574326389</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>361.1672515386921</v>
+        <v>361.1877574326389</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -27889,7 +27889,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.16725153869213</v>
+        <v>24.18775743263889</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -28095,7 +28095,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.16725153869213</v>
+        <v>24.18775743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.12558487202546</v>
+        <v>25.14609076597222</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>36.91725153869213</v>
+        <v>36.93775743263889</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.18808487202546</v>
+        <v>38.20859076597223</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -28507,7 +28507,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -28610,7 +28610,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -28713,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.12558487202546</v>
+        <v>60.14609076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>62.93808487202546</v>
+        <v>62.95859076597223</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -28919,7 +28919,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>63.91725153869213</v>
+        <v>63.93775743263889</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -29022,7 +29022,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.0214182053588</v>
+        <v>74.04192409930556</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>99.22975153869211</v>
+        <v>99.25025743263888</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -29434,7 +29434,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>109.1255848720255</v>
+        <v>109.1460907659722</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -29640,7 +29640,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>119.9380848720255</v>
+        <v>119.9585907659722</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.1255848720255</v>
+        <v>123.1460907659722</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>158.2714182053588</v>
+        <v>158.2919240993055</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -30670,7 +30670,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>179.0630848720255</v>
+        <v>179.0835907659722</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>185.2089182053588</v>
+        <v>185.2294240993055</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -31185,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>197.9693348720255</v>
+        <v>197.9898407659722</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -31288,7 +31288,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>200.0630848720255</v>
+        <v>200.0835907659722</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -31391,7 +31391,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -31597,7 +31597,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>221.9589182053588</v>
+        <v>221.9794240993056</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>228.1672515386921</v>
+        <v>228.1877574326389</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>228.9693348720255</v>
+        <v>228.9898407659722</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>316.9589182053588</v>
+        <v>316.9794240993056</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>318.2089182053588</v>
+        <v>318.2294240993056</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -32421,7 +32421,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>318.2297515386921</v>
+        <v>318.2502574326389</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -32524,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>319.2714182053588</v>
+        <v>319.2919240993056</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -32730,7 +32730,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>330.9589182053588</v>
+        <v>330.9794240993056</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -32833,7 +32833,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>331.1672515386921</v>
+        <v>331.1877574326389</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -33039,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>340.1672515386921</v>
+        <v>340.1877574326389</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -33142,7 +33142,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>342.9693348720255</v>
+        <v>342.9898407659722</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -33245,7 +33245,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>347.2714182053588</v>
+        <v>347.2919240993056</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -33348,7 +33348,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>29.91725153869213</v>
+        <v>29.93775743263889</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.0214182053588</v>
+        <v>32.04192409930555</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.0214182053588</v>
+        <v>39.04192409930555</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>45.06308487202546</v>
+        <v>45.08359076597223</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.0214182053588</v>
+        <v>60.04192409930555</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.22975153869213</v>
+        <v>60.25025743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>73.06308487202547</v>
+        <v>73.08359076597222</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>80.16725153869213</v>
+        <v>80.18775743263889</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>97.90683487202546</v>
+        <v>97.92734076597222</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>99.02141820535878</v>
+        <v>99.04192409930555</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>115.1672515386921</v>
+        <v>115.1877574326389</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>119.9068348720255</v>
+        <v>119.9273407659722</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -35064,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.0630848720255</v>
+        <v>129.0835907659722</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>150.0630848720255</v>
+        <v>150.0835907659722</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>164.9589182053588</v>
+        <v>164.9794240993055</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>179.2714182053588</v>
+        <v>179.2919240993055</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>192.9589182053588</v>
+        <v>192.9794240993055</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>199.1047515386921</v>
+        <v>199.1252574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>220.2089182053588</v>
+        <v>220.2294240993056</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>220.2089182053588</v>
+        <v>220.2294240993056</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>221.2714182053588</v>
+        <v>221.2919240993056</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>235.9589182053588</v>
+        <v>235.9794240993056</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -36403,7 +36403,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -36506,7 +36506,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>323.9589182053588</v>
+        <v>323.9794240993056</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>325.2089182053588</v>
+        <v>325.2294240993056</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -36918,7 +36918,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>351.9589182053588</v>
+        <v>351.9794240993056</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -37021,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>361.0630848720255</v>
+        <v>361.0835907659722</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.969334872025463</v>
+        <v>0.9898407659722223</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -37398,7 +37398,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>0.969334872025463</v>
+        <v>0.9898407659722223</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -37501,7 +37501,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.2089182053588</v>
+        <v>31.22942409930556</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -37913,7 +37913,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>43.91725153869213</v>
+        <v>43.93775743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.16725153869213</v>
+        <v>45.18775743263889</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.12558487202546</v>
+        <v>60.14609076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -38222,7 +38222,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>63.9276682053588</v>
+        <v>63.94817409930555</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>73.16725153869213</v>
+        <v>73.18775743263889</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.22975153869213</v>
+        <v>95.25025743263889</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -38531,7 +38531,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>99.12558487202546</v>
+        <v>99.14609076597222</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.0214182053588</v>
+        <v>109.0419240993055</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.1672515386921</v>
+        <v>115.1877574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.9380848720255</v>
+        <v>117.9585907659722</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -39149,7 +39149,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>144.0214182053588</v>
+        <v>144.0419240993055</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -39870,7 +39870,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>192.1047515386921</v>
+        <v>192.1252574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>193.1672515386921</v>
+        <v>193.1877574326389</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>199.2089182053588</v>
+        <v>199.2294240993056</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>214.2714182053588</v>
+        <v>214.2919240993056</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -40488,7 +40488,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.9589182053588</v>
+        <v>214.9794240993056</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -40591,7 +40591,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -40694,7 +40694,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -41106,7 +41106,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -41209,7 +41209,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -41312,7 +41312,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>326.2714182053588</v>
+        <v>326.2919240993056</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -41415,7 +41415,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>337.9589182053588</v>
+        <v>337.9794240993056</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -41621,7 +41621,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>341.9693348720255</v>
+        <v>341.9898407659722</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>341.9693348720255</v>
+        <v>341.9898407659722</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -41827,7 +41827,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>346.2089182053588</v>
+        <v>346.2294240993056</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -41930,7 +41930,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -42033,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -42136,7 +42136,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -42410,7 +42410,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.12558487202546</v>
+        <v>18.14609076597222</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.12558487202546</v>
+        <v>18.14609076597222</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.12558487202546</v>
+        <v>25.14609076597222</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -42719,7 +42719,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -42822,7 +42822,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.16725153869213</v>
+        <v>59.18775743263889</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -42925,7 +42925,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>81.9276682053588</v>
+        <v>81.94817409930556</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>99.12558487202546</v>
+        <v>99.14609076597222</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -43234,7 +43234,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.1255848720255</v>
+        <v>123.1460907659722</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>158.1672515386921</v>
+        <v>158.1877574326389</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -43440,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>182.9797515386921</v>
+        <v>183.0002574326389</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -43646,7 +43646,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -43749,7 +43749,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>343.9589182053588</v>
+        <v>343.9794240993056</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -44023,7 +44023,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.9485015386921296</v>
+        <v>0.9690074326388889</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -44126,7 +44126,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>3.91725153869213</v>
+        <v>3.937757432638889</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -44229,7 +44229,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>17.16725153869213</v>
+        <v>17.18775743263889</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -44332,7 +44332,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>18.0214182053588</v>
+        <v>18.04192409930556</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -44435,7 +44435,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>46.22975153869213</v>
+        <v>46.25025743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44744,7 +44744,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>52.16725153869213</v>
+        <v>52.18775743263889</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -44847,7 +44847,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>57.91725153869213</v>
+        <v>57.93775743263889</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -44950,7 +44950,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.90683487202546</v>
+        <v>61.92734076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -45053,7 +45053,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>63.93808487202546</v>
+        <v>63.95859076597223</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -45156,7 +45156,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>81.0214182053588</v>
+        <v>81.04192409930556</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -45259,7 +45259,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>94.16725153869213</v>
+        <v>94.18775743263889</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.0214182053588</v>
+        <v>95.04192409930556</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -45465,7 +45465,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>96.93808487202547</v>
+        <v>96.95859076597222</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>102.2297515386921</v>
+        <v>102.2502574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>108.1672515386921</v>
+        <v>108.1877574326389</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -45774,7 +45774,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>109.9172515386921</v>
+        <v>109.9377574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>116.2297515386921</v>
+        <v>116.2502574326389</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -45980,7 +45980,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>122.9172515386921</v>
+        <v>122.9377574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>129.1672515386921</v>
+        <v>129.1877574326389</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -46186,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>130.0214182053588</v>
+        <v>130.0419240993055</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -46289,7 +46289,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>143.0630848720255</v>
+        <v>143.0835907659722</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>144.2297515386921</v>
+        <v>144.2502574326389</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46495,7 +46495,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>150.1672515386921</v>
+        <v>150.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -46598,7 +46598,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>151.0214182053588</v>
+        <v>151.0419240993055</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -46701,7 +46701,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>151.2297515386921</v>
+        <v>151.2502574326389</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>158.9589182053588</v>
+        <v>158.9794240993055</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>165.0630848720255</v>
+        <v>165.0835907659722</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -47010,7 +47010,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>178.2089182053588</v>
+        <v>178.2294240993055</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>178.2089182053588</v>
+        <v>178.2294240993055</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.0630848720255</v>
+        <v>186.0835907659722</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -47422,7 +47422,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -47628,7 +47628,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>200.2714182053588</v>
+        <v>200.2919240993056</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -47731,7 +47731,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>220.1047515386921</v>
+        <v>220.1252574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -47834,7 +47834,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>225.9589182053588</v>
+        <v>225.9794240993056</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>228.0630848720255</v>
+        <v>228.0835907659722</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>234.1047515386921</v>
+        <v>234.1252574326389</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -48143,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>234.2089182053588</v>
+        <v>234.2294240993056</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>235.0630848720255</v>
+        <v>235.0835907659722</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -48349,7 +48349,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -48452,7 +48452,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>314.9589182053588</v>
+        <v>314.9794240993056</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -48555,7 +48555,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.0630848720255</v>
+        <v>319.0835907659722</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -48658,7 +48658,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>332.0005848720255</v>
+        <v>332.0210907659722</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -48761,7 +48761,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>332.1047515386921</v>
+        <v>332.1252574326389</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -48864,7 +48864,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -48967,7 +48967,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -49070,7 +49070,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>341.9485015386921</v>
+        <v>341.9690074326389</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -49173,7 +49173,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>342.9693348720255</v>
+        <v>342.9898407659722</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -49276,7 +49276,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>346.2089182053588</v>
+        <v>346.2294240993056</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -49379,7 +49379,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -49482,7 +49482,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>353.1047515386921</v>
+        <v>353.1252574326389</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>353.2089182053588</v>
+        <v>353.2294240993056</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -49859,7 +49859,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>29.91725153869213</v>
+        <v>29.93775743263889</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -49962,7 +49962,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>32.0214182053588</v>
+        <v>32.04192409930555</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>39.0214182053588</v>
+        <v>39.04192409930555</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>45.06308487202546</v>
+        <v>45.08359076597223</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.0214182053588</v>
+        <v>60.04192409930555</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -50477,7 +50477,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>60.22975153869213</v>
+        <v>60.25025743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -50580,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>73.06308487202547</v>
+        <v>73.08359076597222</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -50683,7 +50683,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>80.16725153869213</v>
+        <v>80.18775743263889</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -50786,7 +50786,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>97.90683487202546</v>
+        <v>97.92734076597222</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>99.02141820535878</v>
+        <v>99.04192409930555</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>115.1672515386921</v>
+        <v>115.1877574326389</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>119.9068348720255</v>
+        <v>119.9273407659722</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -51301,7 +51301,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -51404,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>129.0630848720255</v>
+        <v>129.0835907659722</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -51507,7 +51507,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>150.0630848720255</v>
+        <v>150.0835907659722</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -51610,7 +51610,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>164.9589182053588</v>
+        <v>164.9794240993055</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>179.2714182053588</v>
+        <v>179.2919240993055</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -51816,7 +51816,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -51919,7 +51919,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>192.9589182053588</v>
+        <v>192.9794240993055</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -52022,7 +52022,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>199.1047515386921</v>
+        <v>199.1252574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -52125,7 +52125,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -52228,7 +52228,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>220.2089182053588</v>
+        <v>220.2294240993056</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -52331,7 +52331,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>220.2089182053588</v>
+        <v>220.2294240993056</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -52434,7 +52434,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>221.2714182053588</v>
+        <v>221.2919240993056</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -52537,7 +52537,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>235.9589182053588</v>
+        <v>235.9794240993056</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -52640,7 +52640,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -52743,7 +52743,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -52949,7 +52949,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>323.9589182053588</v>
+        <v>323.9794240993056</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>325.2089182053588</v>
+        <v>325.2294240993056</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -53155,7 +53155,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>351.9589182053588</v>
+        <v>351.9794240993056</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -53258,7 +53258,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>361.0630848720255</v>
+        <v>361.0835907659722</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>3.16725153869213</v>
+        <v>3.187757432638889</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.021418205358796</v>
+        <v>4.041924099305556</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.22975153869213</v>
+        <v>25.25025743263889</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>38.91725153869213</v>
+        <v>38.93775743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>46.0214182053588</v>
+        <v>46.04192409930555</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.22975153869213</v>
+        <v>53.25025743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.16725153869213</v>
+        <v>59.18775743263889</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>62.90683487202546</v>
+        <v>62.92734076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -54459,7 +54459,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>63.90683487202546</v>
+        <v>63.92734076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -54562,7 +54562,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>74.22975153869213</v>
+        <v>74.25025743263889</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>92.9589182053588</v>
+        <v>92.97942409930556</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -54768,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.90683487202547</v>
+        <v>96.92734076597222</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>108.1672515386921</v>
+        <v>108.1877574326389</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.1255848720255</v>
+        <v>109.1460907659722</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -55077,7 +55077,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>118.9068348720255</v>
+        <v>118.9273407659722</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>123.1255848720255</v>
+        <v>123.1460907659722</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>164.1047515386921</v>
+        <v>164.1252574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>165.2714182053588</v>
+        <v>165.2919240993055</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>186.2714182053588</v>
+        <v>186.2919240993055</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -56313,7 +56313,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -56622,7 +56622,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -56725,7 +56725,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.2089182053588</v>
+        <v>227.2294240993056</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -56828,7 +56828,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>227.9589182053588</v>
+        <v>227.9794240993056</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -56931,7 +56931,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>228.1672515386921</v>
+        <v>228.1877574326389</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -57034,7 +57034,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>232.9589182053588</v>
+        <v>232.9794240993056</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -57137,7 +57137,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -57240,7 +57240,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -57446,7 +57446,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>313.9589182053588</v>
+        <v>313.9794240993056</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -57549,7 +57549,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>318.1255848720255</v>
+        <v>318.1460907659722</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -57652,7 +57652,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>325.1047515386921</v>
+        <v>325.1252574326389</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -57755,7 +57755,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -57858,7 +57858,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>336.9589182053588</v>
+        <v>336.9794240993056</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -57961,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>343.9693348720255</v>
+        <v>343.9898407659722</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -58064,7 +58064,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>354.2714182053588</v>
+        <v>354.2919240993056</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -58338,7 +58338,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.9797515386921296</v>
+        <v>1.000257432638889</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -58441,7 +58441,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>0.9797515386921296</v>
+        <v>1.000257432638889</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -58544,7 +58544,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -58647,7 +58647,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.22975153869213</v>
+        <v>4.250257432638889</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -58750,7 +58750,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>22.91725153869213</v>
+        <v>22.93775743263889</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -58853,7 +58853,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>25.12558487202546</v>
+        <v>25.14609076597222</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -58956,7 +58956,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -59059,7 +59059,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -59162,7 +59162,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>46.12558487202546</v>
+        <v>46.14609076597223</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -59780,7 +59780,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>50.91725153869213</v>
+        <v>50.93775743263889</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -59883,7 +59883,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>53.0214182053588</v>
+        <v>53.04192409930555</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -59986,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -60192,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>59.16725153869213</v>
+        <v>59.18775743263889</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>60.12558487202546</v>
+        <v>60.14609076597223</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -60398,7 +60398,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>61.93808487202546</v>
+        <v>61.95859076597223</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>63.9276682053588</v>
+        <v>63.94817409930555</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>71.9276682053588</v>
+        <v>71.94817409930556</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -60707,7 +60707,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>81.22975153869213</v>
+        <v>81.25025743263889</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>91.97975153869213</v>
+        <v>92.00025743263889</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>94.16725153869213</v>
+        <v>94.18775743263889</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -61016,7 +61016,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -61119,7 +61119,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>97.93808487202546</v>
+        <v>97.95859076597222</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>97.93808487202546</v>
+        <v>97.95859076597222</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>101.2089182053588</v>
+        <v>101.2294240993055</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -61428,7 +61428,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -61531,7 +61531,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -61634,7 +61634,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>103.9172515386921</v>
+        <v>103.9377574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>108.1672515386921</v>
+        <v>108.1877574326389</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>109.1255848720255</v>
+        <v>109.1460907659722</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -61943,7 +61943,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>115.0630848720255</v>
+        <v>115.0835907659722</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -62046,7 +62046,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>115.1672515386921</v>
+        <v>115.1877574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -62149,7 +62149,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>117.9068348720255</v>
+        <v>117.9273407659722</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -62252,7 +62252,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -62458,7 +62458,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>122.1672515386921</v>
+        <v>122.1877574326389</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -62561,7 +62561,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>123.0214182053588</v>
+        <v>123.0419240993055</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>127.9172515386921</v>
+        <v>127.9377574326389</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -62767,7 +62767,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>144.1255848720255</v>
+        <v>144.1460907659722</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>148.9172515386921</v>
+        <v>148.9377574326389</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -63282,7 +63282,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>157.1672515386921</v>
+        <v>157.1877574326389</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -63385,7 +63385,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>157.2089182053588</v>
+        <v>157.2294240993055</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>158.0630848720255</v>
+        <v>158.0835907659722</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>162.9589182053588</v>
+        <v>162.9794240993055</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>178.2089182053588</v>
+        <v>178.2294240993055</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -63900,7 +63900,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>183.9589182053588</v>
+        <v>183.9794240993055</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>192.2089182053588</v>
+        <v>192.2294240993055</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -64106,7 +64106,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>193.0630848720255</v>
+        <v>193.0835907659722</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -64209,7 +64209,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>193.1672515386921</v>
+        <v>193.1877574326389</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>213.2089182053588</v>
+        <v>213.2294240993056</v>
       </c>
       <c r="AD60" t="n">
         <v>1</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>214.0630848720255</v>
+        <v>214.0835907659722</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -64621,7 +64621,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>221.0630848720255</v>
+        <v>221.0835907659722</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -64724,7 +64724,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD64" t="n">
         <v>1</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>227.1047515386921</v>
+        <v>227.1252574326389</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -64930,7 +64930,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>228.1672515386921</v>
+        <v>228.1877574326389</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>319.1672515386921</v>
+        <v>319.1877574326389</v>
       </c>
       <c r="AD69" t="n">
         <v>1</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>325.2089182053588</v>
+        <v>325.2294240993056</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -65548,7 +65548,7 @@
         <v>1</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>331.0630848720255</v>
+        <v>331.0835907659722</v>
       </c>
       <c r="AD72" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>340.1672515386921</v>
+        <v>340.1877574326389</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -65857,7 +65857,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>340.2714182053588</v>
+        <v>340.2919240993056</v>
       </c>
       <c r="AD75" t="n">
         <v>0</v>
@@ -65960,7 +65960,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>342.9797515386921</v>
+        <v>343.0002574326389</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -66063,7 +66063,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>343.9797515386921</v>
+        <v>344.0002574326389</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -66166,7 +66166,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD78" t="n">
         <v>0</v>
@@ -66269,7 +66269,7 @@
         <v>1</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD79" t="n">
         <v>1</v>
@@ -66372,7 +66372,7 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD80" t="n">
         <v>1</v>
@@ -66475,7 +66475,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>361.1672515386921</v>
+        <v>361.1877574326389</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -66578,7 +66578,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>361.1672515386921</v>
+        <v>361.1877574326389</v>
       </c>
       <c r="AD82" t="n">
         <v>1</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.969334872025463</v>
+        <v>0.9898407659722223</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -66955,7 +66955,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>0.969334872025463</v>
+        <v>0.9898407659722223</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -67264,7 +67264,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>31.2089182053588</v>
+        <v>31.22942409930556</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -67367,7 +67367,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>32.12558487202546</v>
+        <v>32.14609076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>43.91725153869213</v>
+        <v>43.93775743263889</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.16725153869213</v>
+        <v>45.18775743263889</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.12558487202546</v>
+        <v>60.14609076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>63.9276682053588</v>
+        <v>63.94817409930555</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -67882,7 +67882,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>73.16725153869213</v>
+        <v>73.18775743263889</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.22975153869213</v>
+        <v>95.25025743263889</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>99.12558487202546</v>
+        <v>99.14609076597222</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -68294,7 +68294,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>109.0214182053588</v>
+        <v>109.0419240993055</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>115.1672515386921</v>
+        <v>115.1877574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -68500,7 +68500,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.9380848720255</v>
+        <v>117.9585907659722</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -68603,7 +68603,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -68809,7 +68809,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>130.1255848720255</v>
+        <v>130.1460907659722</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>144.0214182053588</v>
+        <v>144.0419240993055</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -69015,7 +69015,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -69221,7 +69221,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>151.1255848720255</v>
+        <v>151.1460907659722</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -69324,7 +69324,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -69427,7 +69427,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -69530,7 +69530,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>192.1047515386921</v>
+        <v>192.1252574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -69736,7 +69736,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>193.1672515386921</v>
+        <v>193.1877574326389</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>199.2089182053588</v>
+        <v>199.2294240993056</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>214.2714182053588</v>
+        <v>214.2919240993056</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -70045,7 +70045,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.9589182053588</v>
+        <v>214.9794240993056</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -70148,7 +70148,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -70354,7 +70354,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -70457,7 +70457,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -70560,7 +70560,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -70663,7 +70663,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>326.2714182053588</v>
+        <v>326.2919240993056</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -70972,7 +70972,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -71075,7 +71075,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>337.9589182053588</v>
+        <v>337.9794240993056</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -71178,7 +71178,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>341.9693348720255</v>
+        <v>341.9898407659722</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -71281,7 +71281,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>341.9693348720255</v>
+        <v>341.9898407659722</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -71384,7 +71384,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>346.2089182053588</v>
+        <v>346.2294240993056</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -71487,7 +71487,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -71590,7 +71590,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -71693,7 +71693,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25.0214182053588</v>
+        <v>25.04192409930556</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>42.12558487202546</v>
+        <v>42.14609076597223</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>42.97975153869213</v>
+        <v>43.00025743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>62.93808487202546</v>
+        <v>62.95859076597223</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>102.9172515386921</v>
+        <v>102.9377574326389</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>144.1255848720255</v>
+        <v>144.1460907659722</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.1255848720255</v>
+        <v>144.1460907659722</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>157.1672515386921</v>
+        <v>157.1877574326389</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>157.1672515386921</v>
+        <v>157.1877574326389</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>158.1672515386921</v>
+        <v>158.1877574326389</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>193.1672515386921</v>
+        <v>193.1877574326389</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>221.1672515386921</v>
+        <v>221.1877574326389</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>235.2714182053588</v>
+        <v>235.2919240993056</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -73924,7 +73924,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>333.0630848720255</v>
+        <v>333.0835907659722</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -74027,7 +74027,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>333.1672515386921</v>
+        <v>333.1877574326389</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -74130,7 +74130,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>347.1672515386921</v>
+        <v>347.1877574326389</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -74233,7 +74233,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>347.9589182053588</v>
+        <v>347.9794240993056</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>354.0630848720255</v>
+        <v>354.0835907659722</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.125584872025463</v>
+        <v>4.146090765972223</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>24.16725153869213</v>
+        <v>24.18775743263889</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>24.16725153869213</v>
+        <v>24.18775743263889</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>25.12558487202546</v>
+        <v>25.14609076597222</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>36.91725153869213</v>
+        <v>36.93775743263889</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>38.18808487202546</v>
+        <v>38.20859076597223</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>39.12558487202546</v>
+        <v>39.14609076597223</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>60.12558487202546</v>
+        <v>60.14609076597223</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>62.93808487202546</v>
+        <v>62.95859076597223</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>63.91725153869213</v>
+        <v>63.93775743263889</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.0214182053588</v>
+        <v>74.04192409930556</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>95.12558487202547</v>
+        <v>95.14609076597222</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>99.22975153869211</v>
+        <v>99.25025743263888</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -76155,7 +76155,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>102.1255848720255</v>
+        <v>102.1460907659722</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>109.1255848720255</v>
+        <v>109.1460907659722</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>118.9380848720255</v>
+        <v>118.9585907659722</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>119.9380848720255</v>
+        <v>119.9585907659722</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>123.1255848720255</v>
+        <v>123.1460907659722</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>143.1672515386921</v>
+        <v>143.1877574326389</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>158.2714182053588</v>
+        <v>158.2919240993055</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>165.1672515386921</v>
+        <v>165.1877574326389</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>179.0630848720255</v>
+        <v>179.0835907659722</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>179.1672515386921</v>
+        <v>179.1877574326389</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>185.2089182053588</v>
+        <v>185.2294240993055</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>197.9693348720255</v>
+        <v>197.9898407659722</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>200.0630848720255</v>
+        <v>200.0835907659722</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -78318,7 +78318,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>200.1672515386921</v>
+        <v>200.1877574326389</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>214.1672515386921</v>
+        <v>214.1877574326389</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>221.9589182053588</v>
+        <v>221.9794240993056</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -78627,7 +78627,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>228.1672515386921</v>
+        <v>228.1877574326389</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>228.9693348720255</v>
+        <v>228.9898407659722</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>235.1672515386921</v>
+        <v>235.1877574326389</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -78936,7 +78936,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>311.1047515386921</v>
+        <v>311.1252574326389</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -79039,7 +79039,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>316.9589182053588</v>
+        <v>316.9794240993056</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -79142,7 +79142,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>318.2089182053588</v>
+        <v>318.2294240993056</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>318.2297515386921</v>
+        <v>318.2502574326389</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -79348,7 +79348,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>319.2714182053588</v>
+        <v>319.2919240993056</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -79451,7 +79451,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>326.1672515386921</v>
+        <v>326.1877574326389</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -79554,7 +79554,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>330.9589182053588</v>
+        <v>330.9794240993056</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -79657,7 +79657,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>331.1672515386921</v>
+        <v>331.1877574326389</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -79760,7 +79760,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -79863,7 +79863,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>340.1672515386921</v>
+        <v>340.1877574326389</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -79966,7 +79966,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>342.9693348720255</v>
+        <v>342.9898407659722</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -80069,7 +80069,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>347.2714182053588</v>
+        <v>347.2919240993056</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -80172,7 +80172,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>354.1672515386921</v>
+        <v>354.1877574326389</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>18.12558487202546</v>
+        <v>18.14609076597222</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>18.12558487202546</v>
+        <v>18.14609076597222</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.12558487202546</v>
+        <v>25.14609076597222</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>53.12558487202546</v>
+        <v>53.14609076597223</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>59.16725153869213</v>
+        <v>59.18775743263889</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>81.9276682053588</v>
+        <v>81.94817409930556</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -81064,7 +81064,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>99.12558487202546</v>
+        <v>99.14609076597222</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>116.1255848720255</v>
+        <v>116.1460907659722</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>123.1255848720255</v>
+        <v>123.1460907659722</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>158.1672515386921</v>
+        <v>158.1877574326389</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>182.9797515386921</v>
+        <v>183.0002574326389</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>186.1672515386921</v>
+        <v>186.1877574326389</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>339.2089182053588</v>
+        <v>339.2294240993056</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>343.9589182053588</v>
+        <v>343.9794240993056</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>

--- a/EDA_DF/EPL_Rank_ML.xlsx
+++ b/EDA_DF/EPL_Rank_ML.xlsx
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.601364121030093</v>
+        <v>4.708707198344907</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.63261412103009</v>
+        <v>25.73995719834491</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.74719745436343</v>
+        <v>25.85454053167824</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.64303078769676</v>
+        <v>32.75037386501157</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.60136412103009</v>
+        <v>53.7087071983449</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.60136412103009</v>
+        <v>60.7087071983449</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.60136412103009</v>
+        <v>81.70870719834491</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>103.5596974543634</v>
+        <v>103.6670405316783</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>109.6013641210301</v>
+        <v>109.7087071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>117.5596974543634</v>
+        <v>117.6670405316783</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>120.4451141210301</v>
+        <v>120.5524571983449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>123.6013641210301</v>
+        <v>123.7087071983449</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.7680307876968</v>
+        <v>131.8753738650116</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>158.6430307876968</v>
+        <v>158.7503738650116</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.6430307876968</v>
+        <v>179.7503738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>214.6430307876968</v>
+        <v>214.7503738650116</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>340.6430307876968</v>
+        <v>340.7503738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.4971974543634</v>
+        <v>344.6045405316783</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>4.601364121030093</v>
+        <v>4.708707198344907</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>25.63261412103009</v>
+        <v>25.73995719834491</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.74719745436343</v>
+        <v>25.85454053167824</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>32.64303078769676</v>
+        <v>32.75037386501157</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>53.60136412103009</v>
+        <v>53.7087071983449</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>60.60136412103009</v>
+        <v>60.7087071983449</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>81.60136412103009</v>
+        <v>81.70870719834491</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>103.5596974543634</v>
+        <v>103.6670405316783</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>109.6013641210301</v>
+        <v>109.7087071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>117.5596974543634</v>
+        <v>117.6670405316783</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>120.4451141210301</v>
+        <v>120.5524571983449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>123.6013641210301</v>
+        <v>123.7087071983449</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>131.7680307876968</v>
+        <v>131.8753738650116</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>158.6430307876968</v>
+        <v>158.7503738650116</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>179.6430307876968</v>
+        <v>179.7503738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>214.6430307876968</v>
+        <v>214.7503738650116</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>340.6430307876968</v>
+        <v>340.7503738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>344.4971974543634</v>
+        <v>344.6045405316783</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.486780787696759</v>
+        <v>1.594123865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.70553078769676</v>
+        <v>4.812873865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.559697454363426</v>
+        <v>5.667040531678241</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.76803078769676</v>
+        <v>26.87537386501157</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>40.45553078769676</v>
+        <v>40.56287386501157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.55969745436342</v>
+        <v>47.66704053167824</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>54.76803078769676</v>
+        <v>54.87537386501157</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.70553078769676</v>
+        <v>60.81287386501157</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>64.44511412103009</v>
+        <v>64.55245719834491</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>65.44511412103009</v>
+        <v>65.55245719834491</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>75.76803078769676</v>
+        <v>75.87537386501157</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>94.49719745436343</v>
+        <v>94.60454053167824</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>98.44511412103009</v>
+        <v>98.55245719834491</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>100.4555307876968</v>
+        <v>100.5628738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>109.7055307876968</v>
+        <v>109.8128738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.6638641210301</v>
+        <v>110.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>120.4451141210301</v>
+        <v>120.5524571983449</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>124.6638641210301</v>
+        <v>124.7712071983449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>165.6430307876968</v>
+        <v>165.7503738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>166.8096974543634</v>
+        <v>166.9170405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.8096974543634</v>
+        <v>187.9170405316783</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.7471974543634</v>
+        <v>214.8545405316782</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>228.7471974543634</v>
+        <v>228.8545405316782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.4971974543634</v>
+        <v>229.6045405316782</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>229.7055307876968</v>
+        <v>229.8128738650116</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -8974,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>234.4971974543634</v>
+        <v>234.6045405316782</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>315.4971974543634</v>
+        <v>315.6045405316783</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>319.6638641210301</v>
+        <v>319.7712071983449</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.6430307876968</v>
+        <v>326.7503738650116</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>338.4971974543634</v>
+        <v>338.6045405316783</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>345.5076141210301</v>
+        <v>345.6149571983449</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.5180307876967593</v>
+        <v>0.625373865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>1.518030787696759</v>
+        <v>1.625373865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.55969745436343</v>
+        <v>26.66704053167824</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>43.66386412103009</v>
+        <v>43.7712071983449</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -10896,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>44.51803078769676</v>
+        <v>44.62537386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>64.47636412103009</v>
+        <v>64.58370719834491</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.4555307876968</v>
+        <v>104.5628738650116</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>145.6638641210301</v>
+        <v>145.7712071983449</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.6638641210301</v>
+        <v>145.7712071983449</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>158.7055307876968</v>
+        <v>158.8128738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>158.7055307876968</v>
+        <v>158.8128738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>159.7055307876968</v>
+        <v>159.8128738650116</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.7055307876968</v>
+        <v>194.8128738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>236.8096974543634</v>
+        <v>236.9170405316782</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>334.6013641210301</v>
+        <v>334.7087071983449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -12647,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>349.4971974543634</v>
+        <v>349.6045405316783</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -12956,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>355.6013641210301</v>
+        <v>355.7087071983449</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.4867807876967593</v>
+        <v>0.594123865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.486780787696759</v>
+        <v>2.594123865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.45553078769676</v>
+        <v>5.562873865011574</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.55969745436343</v>
+        <v>19.66704053167824</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -13642,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.76803078769676</v>
+        <v>47.87537386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.70553078769676</v>
+        <v>53.81287386501157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.45553078769676</v>
+        <v>59.56287386501157</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>63.44511412103009</v>
+        <v>63.5524571983449</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>65.47636412103009</v>
+        <v>65.58370719834491</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.55969745436343</v>
+        <v>82.66704053167824</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.70553078769676</v>
+        <v>95.81287386501157</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -14466,7 +14466,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.55969745436343</v>
+        <v>96.66704053167824</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -14569,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>98.47636412103009</v>
+        <v>98.58370719834491</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.7680307876968</v>
+        <v>103.8753738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>111.4555307876968</v>
+        <v>111.5628738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.7680307876968</v>
+        <v>117.8753738650116</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>124.4555307876968</v>
+        <v>124.5628738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>131.5596974543634</v>
+        <v>131.6670405316783</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>144.6013641210301</v>
+        <v>144.7087071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -15290,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>145.7680307876968</v>
+        <v>145.8753738650116</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>152.5596974543634</v>
+        <v>152.6670405316783</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>152.7680307876968</v>
+        <v>152.8753738650116</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>160.4971974543634</v>
+        <v>160.6045405316783</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>166.6013641210301</v>
+        <v>166.7087071983449</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>179.7471974543634</v>
+        <v>179.8545405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>187.6013641210301</v>
+        <v>187.7087071983449</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>201.8096974543634</v>
+        <v>201.9170405316782</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>221.6430307876968</v>
+        <v>221.7503738650116</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.4971974543634</v>
+        <v>227.6045405316782</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.6013641210301</v>
+        <v>229.7087071983449</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>235.6430307876968</v>
+        <v>235.7503738650116</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>235.7471974543634</v>
+        <v>235.8545405316782</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -16835,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>316.4971974543634</v>
+        <v>316.6045405316783</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -17041,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>320.6013641210301</v>
+        <v>320.7087071983449</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>333.5388641210301</v>
+        <v>333.6462071983449</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>333.6430307876968</v>
+        <v>333.7503738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>343.4867807876968</v>
+        <v>343.5941238650116</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>344.5076141210301</v>
+        <v>344.6149571983449</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>347.7471974543634</v>
+        <v>347.8545405316783</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>354.6430307876968</v>
+        <v>354.7503738650116</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>354.7471974543634</v>
+        <v>354.8545405316783</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -18139,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.518030787696759</v>
+        <v>1.625373865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.518030787696759</v>
+        <v>2.625373865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>2.518030787696759</v>
+        <v>2.625373865011574</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -18551,7 +18551,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>5.76803078769676</v>
+        <v>5.875373865011574</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>18.70553078769676</v>
+        <v>18.81287386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -18757,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>24.45553078769676</v>
+        <v>24.56287386501157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -18860,7 +18860,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>26.66386412103009</v>
+        <v>26.77120719834491</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -18963,7 +18963,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -19066,7 +19066,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -19169,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>52.45553078769676</v>
+        <v>52.56287386501157</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>54.55969745436342</v>
+        <v>54.66704053167824</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -20096,7 +20096,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -20199,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>60.70553078769676</v>
+        <v>60.81287386501157</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -20405,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>61.66386412103009</v>
+        <v>61.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -20508,7 +20508,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>63.47636412103009</v>
+        <v>63.5837071983449</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>65.46594745436343</v>
+        <v>65.57329053167824</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>73.46594745436343</v>
+        <v>73.57329053167824</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -20817,7 +20817,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>82.76803078769676</v>
+        <v>82.87537386501157</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>93.51803078769676</v>
+        <v>93.62537386501157</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -21023,7 +21023,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>95.70553078769676</v>
+        <v>95.81287386501157</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>99.47636412103009</v>
+        <v>99.58370719834491</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>99.47636412103009</v>
+        <v>99.58370719834491</v>
       </c>
       <c r="AD33" t="n">
         <v>1</v>
@@ -21435,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>102.7471974543634</v>
+        <v>102.8545405316783</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -21538,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -21744,7 +21744,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>105.4555307876968</v>
+        <v>105.5628738650116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>109.7055307876968</v>
+        <v>109.8128738650116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>109.7055307876968</v>
+        <v>109.8128738650116</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>110.6638641210301</v>
+        <v>110.7712071983449</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>116.6013641210301</v>
+        <v>116.7087071983449</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>116.7055307876968</v>
+        <v>116.8128738650116</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -22362,7 +22362,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>119.4451141210301</v>
+        <v>119.5524571983449</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -22568,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>124.5596974543634</v>
+        <v>124.6670405316783</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>129.4555307876968</v>
+        <v>129.5628738650116</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -22980,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>130.7055307876968</v>
+        <v>130.8128738650116</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>145.6638641210301</v>
+        <v>145.7712071983449</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>150.4555307876968</v>
+        <v>150.5628738650116</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>151.7055307876968</v>
+        <v>151.8128738650116</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>158.7055307876968</v>
+        <v>158.8128738650116</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>158.7471974543634</v>
+        <v>158.8545405316783</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>159.6013641210301</v>
+        <v>159.7087071983449</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -24010,7 +24010,7 @@
         <v>1</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>164.4971974543634</v>
+        <v>164.6045405316783</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>179.7471974543634</v>
+        <v>179.8545405316783</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>179.7471974543634</v>
+        <v>179.8545405316783</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
@@ -24422,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>185.4971974543634</v>
+        <v>185.6045405316783</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -24525,7 +24525,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -24628,7 +24628,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD65" t="n">
         <v>1</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>194.6013641210301</v>
+        <v>194.7087071983449</v>
       </c>
       <c r="AD66" t="n">
         <v>1</v>
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>194.7055307876968</v>
+        <v>194.8128738650116</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>1</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>214.7471974543634</v>
+        <v>214.8545405316782</v>
       </c>
       <c r="AD68" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>215.6013641210301</v>
+        <v>215.7087071983449</v>
       </c>
       <c r="AD69" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD70" t="n">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>222.6013641210301</v>
+        <v>222.7087071983449</v>
       </c>
       <c r="AD71" t="n">
         <v>1</v>
@@ -25349,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD72" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>228.6430307876968</v>
+        <v>228.7503738650116</v>
       </c>
       <c r="AD73" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>229.7055307876968</v>
+        <v>229.8128738650116</v>
       </c>
       <c r="AD74" t="n">
         <v>1</v>
@@ -25658,7 +25658,7 @@
         <v>1</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>236.6013641210301</v>
+        <v>236.7087071983449</v>
       </c>
       <c r="AD75" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD76" t="n">
         <v>1</v>
@@ -25864,7 +25864,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD78" t="n">
         <v>1</v>
@@ -26070,7 +26070,7 @@
         <v>1</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>326.7471974543634</v>
+        <v>326.8545405316783</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>332.6013641210301</v>
+        <v>332.7087071983449</v>
       </c>
       <c r="AD81" t="n">
         <v>1</v>
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -26482,7 +26482,7 @@
         <v>1</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -26585,7 +26585,7 @@
         <v>1</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>341.7055307876968</v>
+        <v>341.8128738650116</v>
       </c>
       <c r="AD84" t="n">
         <v>0</v>
@@ -26688,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>341.8096974543634</v>
+        <v>341.9170405316783</v>
       </c>
       <c r="AD85" t="n">
         <v>1</v>
@@ -26791,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>344.5180307876968</v>
+        <v>344.6253738650116</v>
       </c>
       <c r="AD86" t="n">
         <v>1</v>
@@ -26894,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>345.5180307876968</v>
+        <v>345.6253738650116</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -26997,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -27100,7 +27100,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD89" t="n">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -27683,7 +27683,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.70553078769676</v>
+        <v>25.81287386501157</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.70553078769676</v>
+        <v>25.81287386501157</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -27889,7 +27889,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.66386412103009</v>
+        <v>26.77120719834491</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.45553078769676</v>
+        <v>38.56287386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.72636412103009</v>
+        <v>39.8337071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -28198,7 +28198,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -28301,7 +28301,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -28404,7 +28404,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.66386412103009</v>
+        <v>61.7712071983449</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -28507,7 +28507,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>64.47636412103009</v>
+        <v>64.58370719834491</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -28610,7 +28610,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>65.45553078769676</v>
+        <v>65.56287386501157</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -28713,7 +28713,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.55969745436343</v>
+        <v>75.66704053167824</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -28816,7 +28816,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -28919,7 +28919,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>100.7680307876968</v>
+        <v>100.8753738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -29125,7 +29125,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.6638641210301</v>
+        <v>110.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -29228,7 +29228,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -29434,7 +29434,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -29640,7 +29640,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>121.4763641210301</v>
+        <v>121.5837071983449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -29743,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.6638641210301</v>
+        <v>124.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>159.8096974543634</v>
+        <v>159.9170405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -30361,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>180.6013641210301</v>
+        <v>180.7087071983449</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -30464,7 +30464,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>186.7471974543634</v>
+        <v>186.8545405316783</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -30670,7 +30670,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.5076141210301</v>
+        <v>199.6149571983449</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -30979,7 +30979,7 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>201.6013641210301</v>
+        <v>201.7087071983449</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -31082,7 +31082,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -31185,7 +31185,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -31288,7 +31288,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -31391,7 +31391,7 @@
         <v>1</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>223.4971974543634</v>
+        <v>223.6045405316782</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -31494,7 +31494,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>229.7055307876968</v>
+        <v>229.8128738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>230.5076141210301</v>
+        <v>230.6149571983449</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -31803,7 +31803,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>318.4971974543634</v>
+        <v>318.6045405316783</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.7471974543634</v>
+        <v>319.8545405316783</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -32112,7 +32112,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>319.7680307876968</v>
+        <v>319.8753738650116</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -32215,7 +32215,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>320.8096974543634</v>
+        <v>320.9170405316783</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -32421,7 +32421,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>332.4971974543634</v>
+        <v>332.6045405316783</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -32524,7 +32524,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>332.7055307876968</v>
+        <v>332.8128738650116</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -32730,7 +32730,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>341.7055307876968</v>
+        <v>341.8128738650116</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -32833,7 +32833,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>344.5076141210301</v>
+        <v>344.6149571983449</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -32936,7 +32936,7 @@
         <v>1</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>348.8096974543634</v>
+        <v>348.9170405316783</v>
       </c>
       <c r="AD55" t="n">
         <v>0</v>
@@ -33039,7 +33039,7 @@
         <v>1</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -33313,7 +33313,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>31.45553078769676</v>
+        <v>31.56287386501157</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.55969745436342</v>
+        <v>40.66704053167824</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -33519,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.60136412103009</v>
+        <v>46.7087071983449</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>61.76803078769676</v>
+        <v>61.87537386501157</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.60136412103009</v>
+        <v>74.70870719834491</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -33931,7 +33931,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>99.44511412103009</v>
+        <v>99.55245719834491</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>100.5596974543634</v>
+        <v>100.6670405316783</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.7055307876968</v>
+        <v>116.8128738650116</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>121.4451141210301</v>
+        <v>121.5524571983449</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -34446,7 +34446,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>130.6013641210301</v>
+        <v>130.7087071983449</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.6013641210301</v>
+        <v>151.7087071983449</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -34652,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>166.4971974543634</v>
+        <v>166.6045405316783</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -34755,7 +34755,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>180.8096974543634</v>
+        <v>180.9170405316783</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -34961,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>194.4971974543634</v>
+        <v>194.6045405316782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -35064,7 +35064,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>200.6430307876968</v>
+        <v>200.7503738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>221.7471974543634</v>
+        <v>221.8545405316782</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -35373,7 +35373,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>222.8096974543634</v>
+        <v>222.9170405316782</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>237.4971974543634</v>
+        <v>237.6045405316782</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -35682,7 +35682,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>325.4971974543634</v>
+        <v>325.6045405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -35991,7 +35991,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>326.7471974543634</v>
+        <v>326.8545405316783</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>353.4971974543634</v>
+        <v>353.6045405316783</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -36368,7 +36368,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.507614121030093</v>
+        <v>2.614957198344908</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -36471,7 +36471,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.507614121030093</v>
+        <v>2.614957198344908</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -36574,7 +36574,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.74719745436342</v>
+        <v>32.85454053167824</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>33.55969745436342</v>
+        <v>33.66704053167824</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -36986,7 +36986,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.45553078769676</v>
+        <v>45.56287386501157</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -37192,7 +37192,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>46.70553078769676</v>
+        <v>46.81287386501157</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.55969745436342</v>
+        <v>61.66704053167824</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -37398,7 +37398,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.66386412103009</v>
+        <v>61.7712071983449</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -37501,7 +37501,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>65.46594745436343</v>
+        <v>65.57329053167824</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -37604,7 +37604,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.70553078769676</v>
+        <v>74.81287386501157</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.70553078769676</v>
+        <v>81.81287386501157</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>96.76803078769676</v>
+        <v>96.87537386501157</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -37913,7 +37913,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>100.6638641210301</v>
+        <v>100.7712071983449</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>110.5596974543634</v>
+        <v>110.6670405316783</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -38222,7 +38222,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>116.7055307876968</v>
+        <v>116.8128738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -38325,7 +38325,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>119.4763641210301</v>
+        <v>119.5837071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -38634,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -38737,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -38840,7 +38840,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>145.5596974543634</v>
+        <v>145.6670405316783</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -38943,7 +38943,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -39149,7 +39149,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -39252,7 +39252,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -39355,7 +39355,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -39458,7 +39458,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -39561,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>193.6430307876968</v>
+        <v>193.7503738650116</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>194.7055307876968</v>
+        <v>194.8128738650116</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -39767,7 +39767,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.7471974543634</v>
+        <v>200.8545405316782</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -39870,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.8096974543634</v>
+        <v>215.9170405316782</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -39973,7 +39973,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>216.4971974543634</v>
+        <v>216.6045405316782</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -40076,7 +40076,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>221.7471974543634</v>
+        <v>221.8545405316782</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -40282,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD40" t="n">
         <v>1</v>
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -40488,7 +40488,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -40591,7 +40591,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -40694,7 +40694,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>327.8096974543634</v>
+        <v>327.9170405316783</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -41003,7 +41003,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD47" t="n">
         <v>1</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>339.4971974543634</v>
+        <v>339.6045405316783</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -41209,7 +41209,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>343.5076141210301</v>
+        <v>343.6149571983449</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -41312,7 +41312,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.5076141210301</v>
+        <v>343.6149571983449</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -41415,7 +41415,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>347.7471974543634</v>
+        <v>347.8545405316783</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -41518,7 +41518,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -41621,7 +41621,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -41724,7 +41724,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -41998,7 +41998,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.66386412103009</v>
+        <v>19.77120719834491</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -42101,7 +42101,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.66386412103009</v>
+        <v>19.77120719834491</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -42204,7 +42204,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.66386412103009</v>
+        <v>26.77120719834491</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -42307,7 +42307,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -42410,7 +42410,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.70553078769676</v>
+        <v>60.81287386501157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -42513,7 +42513,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>83.46594745436343</v>
+        <v>83.57329053167824</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>100.6638641210301</v>
+        <v>100.7712071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -42719,7 +42719,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -42822,7 +42822,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>124.6638641210301</v>
+        <v>124.7712071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -42925,7 +42925,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>159.7055307876968</v>
+        <v>159.8128738650116</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -43028,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>184.5180307876968</v>
+        <v>184.6253738650116</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -43131,7 +43131,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -43234,7 +43234,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -43337,7 +43337,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>345.4971974543634</v>
+        <v>345.6045405316783</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -43611,7 +43611,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.4867807876967593</v>
+        <v>0.594123865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -43714,7 +43714,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.486780787696759</v>
+        <v>2.594123865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -43817,7 +43817,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.45553078769676</v>
+        <v>5.562873865011574</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -43920,7 +43920,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>19.55969745436343</v>
+        <v>19.66704053167824</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -44023,7 +44023,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -44126,7 +44126,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>47.76803078769676</v>
+        <v>47.87537386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -44229,7 +44229,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>53.70553078769676</v>
+        <v>53.81287386501157</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -44332,7 +44332,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>59.45553078769676</v>
+        <v>59.56287386501157</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -44435,7 +44435,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>63.44511412103009</v>
+        <v>63.5524571983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -44538,7 +44538,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>65.47636412103009</v>
+        <v>65.58370719834491</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -44641,7 +44641,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>82.55969745436343</v>
+        <v>82.66704053167824</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -44744,7 +44744,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>95.70553078769676</v>
+        <v>95.81287386501157</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -44847,7 +44847,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>96.55969745436343</v>
+        <v>96.66704053167824</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -44950,7 +44950,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>98.47636412103009</v>
+        <v>98.58370719834491</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -45053,7 +45053,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>103.7680307876968</v>
+        <v>103.8753738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -45156,7 +45156,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>111.4555307876968</v>
+        <v>111.5628738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -45259,7 +45259,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>117.7680307876968</v>
+        <v>117.8753738650116</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -45362,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>124.4555307876968</v>
+        <v>124.5628738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -45465,7 +45465,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>131.5596974543634</v>
+        <v>131.6670405316783</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -45568,7 +45568,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>144.6013641210301</v>
+        <v>144.7087071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -45671,7 +45671,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>145.7680307876968</v>
+        <v>145.8753738650116</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>152.5596974543634</v>
+        <v>152.6670405316783</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -45877,7 +45877,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>152.7680307876968</v>
+        <v>152.8753738650116</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -45980,7 +45980,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>160.4971974543634</v>
+        <v>160.6045405316783</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>166.6013641210301</v>
+        <v>166.7087071983449</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>179.7471974543634</v>
+        <v>179.8545405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -46289,7 +46289,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>187.6013641210301</v>
+        <v>187.7087071983449</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -46392,7 +46392,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -46495,7 +46495,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -46598,7 +46598,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>201.8096974543634</v>
+        <v>201.9170405316782</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>221.6430307876968</v>
+        <v>221.7503738650116</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -46804,7 +46804,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>227.4971974543634</v>
+        <v>227.6045405316782</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -46907,7 +46907,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>229.6013641210301</v>
+        <v>229.7087071983449</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -47010,7 +47010,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>235.6430307876968</v>
+        <v>235.7503738650116</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -47113,7 +47113,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>235.7471974543634</v>
+        <v>235.8545405316782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -47216,7 +47216,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -47319,7 +47319,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>316.4971974543634</v>
+        <v>316.6045405316783</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -47422,7 +47422,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>320.6013641210301</v>
+        <v>320.7087071983449</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>333.5388641210301</v>
+        <v>333.6462071983449</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -47628,7 +47628,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>333.6430307876968</v>
+        <v>333.7503738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -47731,7 +47731,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -47834,7 +47834,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>343.4867807876968</v>
+        <v>343.5941238650116</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -47937,7 +47937,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>344.5076141210301</v>
+        <v>344.6149571983449</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>347.7471974543634</v>
+        <v>347.8545405316783</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -48143,7 +48143,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>354.6430307876968</v>
+        <v>354.7503738650116</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -48246,7 +48246,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>354.7471974543634</v>
+        <v>354.8545405316783</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -48520,7 +48520,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>31.45553078769676</v>
+        <v>31.56287386501157</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -48623,7 +48623,7 @@
         <v>1</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>40.55969745436342</v>
+        <v>40.66704053167824</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -48726,7 +48726,7 @@
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>46.60136412103009</v>
+        <v>46.7087071983449</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -48829,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -48932,7 +48932,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>61.76803078769676</v>
+        <v>61.87537386501157</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -49035,7 +49035,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>74.60136412103009</v>
+        <v>74.70870719834491</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -49138,7 +49138,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>99.44511412103009</v>
+        <v>99.55245719834491</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -49241,7 +49241,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>100.5596974543634</v>
+        <v>100.6670405316783</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -49344,7 +49344,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>116.7055307876968</v>
+        <v>116.8128738650116</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>121.4451141210301</v>
+        <v>121.5524571983449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -49653,7 +49653,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>130.6013641210301</v>
+        <v>130.7087071983449</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -49756,7 +49756,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>151.6013641210301</v>
+        <v>151.7087071983449</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -49859,7 +49859,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>166.4971974543634</v>
+        <v>166.6045405316783</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -49962,7 +49962,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>180.8096974543634</v>
+        <v>180.9170405316783</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -50065,7 +50065,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -50168,7 +50168,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>194.4971974543634</v>
+        <v>194.6045405316782</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -50271,7 +50271,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>200.6430307876968</v>
+        <v>200.7503738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -50374,7 +50374,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -50477,7 +50477,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>221.7471974543634</v>
+        <v>221.8545405316782</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -50580,7 +50580,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>222.8096974543634</v>
+        <v>222.9170405316782</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -50683,7 +50683,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>237.4971974543634</v>
+        <v>237.6045405316782</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -50786,7 +50786,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -50889,7 +50889,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -50992,7 +50992,7 @@
         <v>1</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>325.4971974543634</v>
+        <v>325.6045405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -51198,7 +51198,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>326.7471974543634</v>
+        <v>326.8545405316783</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -51301,7 +51301,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>353.4971974543634</v>
+        <v>353.6045405316783</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.486780787696759</v>
+        <v>1.594123865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -51678,7 +51678,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>4.70553078769676</v>
+        <v>4.812873865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -51781,7 +51781,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.559697454363426</v>
+        <v>5.667040531678241</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -51884,7 +51884,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>26.76803078769676</v>
+        <v>26.87537386501157</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -51987,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>40.45553078769676</v>
+        <v>40.56287386501157</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -52090,7 +52090,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -52193,7 +52193,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>47.55969745436342</v>
+        <v>47.66704053167824</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -52296,7 +52296,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>54.76803078769676</v>
+        <v>54.87537386501157</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -52399,7 +52399,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>60.70553078769676</v>
+        <v>60.81287386501157</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -52502,7 +52502,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>64.44511412103009</v>
+        <v>64.55245719834491</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -52605,7 +52605,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>65.44511412103009</v>
+        <v>65.55245719834491</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -52708,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>75.76803078769676</v>
+        <v>75.87537386501157</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>94.49719745436343</v>
+        <v>94.60454053167824</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -52914,7 +52914,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>98.44511412103009</v>
+        <v>98.55245719834491</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -53017,7 +53017,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>100.4555307876968</v>
+        <v>100.5628738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -53120,7 +53120,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>109.7055307876968</v>
+        <v>109.8128738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -53223,7 +53223,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.6638641210301</v>
+        <v>110.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -53326,7 +53326,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -53429,7 +53429,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>120.4451141210301</v>
+        <v>120.5524571983449</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
@@ -53532,7 +53532,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -53635,7 +53635,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>124.6638641210301</v>
+        <v>124.7712071983449</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -53738,7 +53738,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -53841,7 +53841,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -53944,7 +53944,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>165.6430307876968</v>
+        <v>165.7503738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -54047,7 +54047,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -54150,7 +54150,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>166.8096974543634</v>
+        <v>166.9170405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -54253,7 +54253,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>187.8096974543634</v>
+        <v>187.9170405316783</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -54562,7 +54562,7 @@
         <v>1</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -54665,7 +54665,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -54768,7 +54768,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>214.7471974543634</v>
+        <v>214.8545405316782</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -54871,7 +54871,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -54974,7 +54974,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -55077,7 +55077,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>228.7471974543634</v>
+        <v>228.8545405316782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -55180,7 +55180,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>229.4971974543634</v>
+        <v>229.6045405316782</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -55283,7 +55283,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>229.7055307876968</v>
+        <v>229.8128738650116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -55386,7 +55386,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>234.4971974543634</v>
+        <v>234.6045405316782</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -55489,7 +55489,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -55592,7 +55592,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -55695,7 +55695,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -55798,7 +55798,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>315.4971974543634</v>
+        <v>315.6045405316783</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -55901,7 +55901,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>319.6638641210301</v>
+        <v>319.7712071983449</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -56004,7 +56004,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -56107,7 +56107,7 @@
         <v>1</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>326.6430307876968</v>
+        <v>326.7503738650116</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -56210,7 +56210,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -56313,7 +56313,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>338.4971974543634</v>
+        <v>338.6045405316783</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -56416,7 +56416,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -56519,7 +56519,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>345.5076141210301</v>
+        <v>345.6149571983449</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -56793,7 +56793,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>1.518030787696759</v>
+        <v>1.625373865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -56896,7 +56896,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.518030787696759</v>
+        <v>2.625373865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
@@ -56999,7 +56999,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>2.518030787696759</v>
+        <v>2.625373865011574</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -57102,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>5.76803078769676</v>
+        <v>5.875373865011574</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -57308,7 +57308,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>18.70553078769676</v>
+        <v>18.81287386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -57411,7 +57411,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>24.45553078769676</v>
+        <v>24.56287386501157</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -57514,7 +57514,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>26.66386412103009</v>
+        <v>26.77120719834491</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -57617,7 +57617,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -57720,7 +57720,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -57823,7 +57823,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -57926,7 +57926,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -58132,7 +58132,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -58235,7 +58235,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -58338,7 +58338,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -58441,7 +58441,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>47.66386412103009</v>
+        <v>47.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>52.45553078769676</v>
+        <v>52.56287386501157</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -58647,7 +58647,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>54.55969745436342</v>
+        <v>54.66704053167824</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -58750,7 +58750,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -58853,7 +58853,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -58956,7 +58956,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>60.70553078769676</v>
+        <v>60.81287386501157</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -59059,7 +59059,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>61.66386412103009</v>
+        <v>61.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -59162,7 +59162,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>63.47636412103009</v>
+        <v>63.5837071983449</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>65.46594745436343</v>
+        <v>65.57329053167824</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -59368,7 +59368,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>73.46594745436343</v>
+        <v>73.57329053167824</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -59471,7 +59471,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>82.76803078769676</v>
+        <v>82.87537386501157</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -59574,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>93.51803078769676</v>
+        <v>93.62537386501157</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -59677,7 +59677,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>95.70553078769676</v>
+        <v>95.81287386501157</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -59780,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -59883,7 +59883,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>99.47636412103009</v>
+        <v>99.58370719834491</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -59986,7 +59986,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>99.47636412103009</v>
+        <v>99.58370719834491</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -60089,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>102.7471974543634</v>
+        <v>102.8545405316783</v>
       </c>
       <c r="AD34" t="n">
         <v>1</v>
@@ -60192,7 +60192,7 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
@@ -60295,7 +60295,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -60398,7 +60398,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>105.4555307876968</v>
+        <v>105.5628738650116</v>
       </c>
       <c r="AD37" t="n">
         <v>1</v>
@@ -60501,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>109.7055307876968</v>
+        <v>109.8128738650116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -60604,7 +60604,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>109.7055307876968</v>
+        <v>109.8128738650116</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
@@ -60707,7 +60707,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>110.6638641210301</v>
+        <v>110.7712071983449</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>116.6013641210301</v>
+        <v>116.7087071983449</v>
       </c>
       <c r="AD41" t="n">
         <v>1</v>
@@ -60913,7 +60913,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>116.7055307876968</v>
+        <v>116.8128738650116</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>1</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>119.4451141210301</v>
+        <v>119.5524571983449</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -61119,7 +61119,7 @@
         <v>1</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -61222,7 +61222,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD45" t="n">
         <v>1</v>
@@ -61325,7 +61325,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -61428,7 +61428,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>124.5596974543634</v>
+        <v>124.6670405316783</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>129.4555307876968</v>
+        <v>129.5628738650116</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -61634,7 +61634,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>130.7055307876968</v>
+        <v>130.8128738650116</v>
       </c>
       <c r="AD49" t="n">
         <v>1</v>
@@ -61737,7 +61737,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -61840,7 +61840,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -61943,7 +61943,7 @@
         <v>1</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>145.6638641210301</v>
+        <v>145.7712071983449</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -62046,7 +62046,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>150.4555307876968</v>
+        <v>150.5628738650116</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -62149,7 +62149,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>151.7055307876968</v>
+        <v>151.8128738650116</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -62355,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>158.7055307876968</v>
+        <v>158.8128738650116</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -62458,7 +62458,7 @@
         <v>1</v>
       </c>
       <c r="AC57" s="3" t="n">
-        <v>158.7471974543634</v>
+        <v>158.8545405316783</v>
       </c>
       <c r="AD57" t="n">
         <v>0</v>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3" t="n">
-        <v>159.6013641210301</v>
+        <v>159.7087071983449</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
@@ -62664,7 +62664,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3" t="n">
-        <v>164.4971974543634</v>
+        <v>164.6045405316783</v>
       </c>
       <c r="AD59" t="n">
         <v>0</v>
@@ -62767,7 +62767,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -62870,7 +62870,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="3" t="n">
-        <v>179.7471974543634</v>
+        <v>179.8545405316783</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -62973,7 +62973,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3" t="n">
-        <v>179.7471974543634</v>
+        <v>179.8545405316783</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -63076,7 +63076,7 @@
         <v>1</v>
       </c>
       <c r="AC63" s="3" t="n">
-        <v>185.4971974543634</v>
+        <v>185.6045405316783</v>
       </c>
       <c r="AD63" t="n">
         <v>0</v>
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD64" t="n">
         <v>0</v>
@@ -63282,7 +63282,7 @@
         <v>1</v>
       </c>
       <c r="AC65" s="3" t="n">
-        <v>193.7471974543634</v>
+        <v>193.8545405316783</v>
       </c>
       <c r="AD65" t="n">
         <v>0</v>
@@ -63385,7 +63385,7 @@
         <v>1</v>
       </c>
       <c r="AC66" s="3" t="n">
-        <v>194.6013641210301</v>
+        <v>194.7087071983449</v>
       </c>
       <c r="AD66" t="n">
         <v>0</v>
@@ -63488,7 +63488,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="3" t="n">
-        <v>194.7055307876968</v>
+        <v>194.8128738650116</v>
       </c>
       <c r="AD67" t="n">
         <v>0</v>
@@ -63591,7 +63591,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="3" t="n">
-        <v>214.7471974543634</v>
+        <v>214.8545405316782</v>
       </c>
       <c r="AD68" t="n">
         <v>1</v>
@@ -63694,7 +63694,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="3" t="n">
-        <v>215.6013641210301</v>
+        <v>215.7087071983449</v>
       </c>
       <c r="AD69" t="n">
         <v>1</v>
@@ -63797,7 +63797,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD70" t="n">
         <v>1</v>
@@ -63900,7 +63900,7 @@
         <v>1</v>
       </c>
       <c r="AC71" s="3" t="n">
-        <v>222.6013641210301</v>
+        <v>222.7087071983449</v>
       </c>
       <c r="AD71" t="n">
         <v>0</v>
@@ -64003,7 +64003,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD72" t="n">
         <v>1</v>
@@ -64106,7 +64106,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="3" t="n">
-        <v>228.6430307876968</v>
+        <v>228.7503738650116</v>
       </c>
       <c r="AD73" t="n">
         <v>1</v>
@@ -64209,7 +64209,7 @@
         <v>1</v>
       </c>
       <c r="AC74" s="3" t="n">
-        <v>229.7055307876968</v>
+        <v>229.8128738650116</v>
       </c>
       <c r="AD74" t="n">
         <v>0</v>
@@ -64312,7 +64312,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="3" t="n">
-        <v>236.6013641210301</v>
+        <v>236.7087071983449</v>
       </c>
       <c r="AD75" t="n">
         <v>1</v>
@@ -64415,7 +64415,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -64518,7 +64518,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -64621,7 +64621,7 @@
         <v>0</v>
       </c>
       <c r="AC78" s="3" t="n">
-        <v>320.7055307876968</v>
+        <v>320.8128738650116</v>
       </c>
       <c r="AD78" t="n">
         <v>1</v>
@@ -64724,7 +64724,7 @@
         <v>0</v>
       </c>
       <c r="AC79" s="3" t="n">
-        <v>326.7471974543634</v>
+        <v>326.8545405316783</v>
       </c>
       <c r="AD79" t="n">
         <v>0</v>
@@ -64827,7 +64827,7 @@
         <v>0</v>
       </c>
       <c r="AC80" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD80" t="n">
         <v>0</v>
@@ -64930,7 +64930,7 @@
         <v>1</v>
       </c>
       <c r="AC81" s="3" t="n">
-        <v>332.6013641210301</v>
+        <v>332.7087071983449</v>
       </c>
       <c r="AD81" t="n">
         <v>0</v>
@@ -65033,7 +65033,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD82" t="n">
         <v>0</v>
@@ -65136,7 +65136,7 @@
         <v>0</v>
       </c>
       <c r="AC83" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD83" t="n">
         <v>0</v>
@@ -65239,7 +65239,7 @@
         <v>0</v>
       </c>
       <c r="AC84" s="3" t="n">
-        <v>341.7055307876968</v>
+        <v>341.8128738650116</v>
       </c>
       <c r="AD84" t="n">
         <v>0</v>
@@ -65342,7 +65342,7 @@
         <v>0</v>
       </c>
       <c r="AC85" s="3" t="n">
-        <v>341.8096974543634</v>
+        <v>341.9170405316783</v>
       </c>
       <c r="AD85" t="n">
         <v>0</v>
@@ -65445,7 +65445,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="3" t="n">
-        <v>344.5180307876968</v>
+        <v>344.6253738650116</v>
       </c>
       <c r="AD86" t="n">
         <v>0</v>
@@ -65548,7 +65548,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="3" t="n">
-        <v>345.5180307876968</v>
+        <v>345.6253738650116</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -65651,7 +65651,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -65754,7 +65754,7 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD89" t="n">
         <v>1</v>
@@ -65857,7 +65857,7 @@
         <v>1</v>
       </c>
       <c r="AC90" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD90" t="n">
         <v>1</v>
@@ -66131,7 +66131,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>2.507614121030093</v>
+        <v>2.614957198344908</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -66234,7 +66234,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>2.507614121030093</v>
+        <v>2.614957198344908</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -66337,7 +66337,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -66440,7 +66440,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -66543,7 +66543,7 @@
         <v>1</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>32.74719745436342</v>
+        <v>32.85454053167824</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -66646,7 +66646,7 @@
         <v>1</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>33.55969745436342</v>
+        <v>33.66704053167824</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -66749,7 +66749,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>33.66386412103009</v>
+        <v>33.7712071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -66852,7 +66852,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>45.45553078769676</v>
+        <v>45.56287386501157</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -66955,7 +66955,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>46.70553078769676</v>
+        <v>46.81287386501157</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -67058,7 +67058,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.55969745436342</v>
+        <v>61.66704053167824</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -67161,7 +67161,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>61.66386412103009</v>
+        <v>61.7712071983449</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -67264,7 +67264,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>65.46594745436343</v>
+        <v>65.57329053167824</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -67367,7 +67367,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>74.70553078769676</v>
+        <v>74.81287386501157</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>81.70553078769676</v>
+        <v>81.81287386501157</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -67573,7 +67573,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>96.76803078769676</v>
+        <v>96.87537386501157</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -67676,7 +67676,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>100.6638641210301</v>
+        <v>100.7712071983449</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -67779,7 +67779,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -67882,7 +67882,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>110.5596974543634</v>
+        <v>110.6670405316783</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -67985,7 +67985,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>116.7055307876968</v>
+        <v>116.8128738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -68088,7 +68088,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>119.4763641210301</v>
+        <v>119.5837071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -68191,7 +68191,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>123.7055307876968</v>
+        <v>123.8128738650116</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -68294,7 +68294,7 @@
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -68397,7 +68397,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -68500,7 +68500,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>131.6638641210301</v>
+        <v>131.7712071983449</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>145.5596974543634</v>
+        <v>145.6670405316783</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -68706,7 +68706,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -68809,7 +68809,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -68912,7 +68912,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>152.6638641210301</v>
+        <v>152.7712071983449</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -69015,7 +69015,7 @@
         <v>1</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -69118,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
@@ -69221,7 +69221,7 @@
         <v>1</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD32" t="n">
         <v>1</v>
@@ -69324,7 +69324,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>193.6430307876968</v>
+        <v>193.7503738650116</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -69427,7 +69427,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>194.7055307876968</v>
+        <v>194.8128738650116</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -69530,7 +69530,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>200.7471974543634</v>
+        <v>200.8545405316782</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -69633,7 +69633,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>215.8096974543634</v>
+        <v>215.9170405316782</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -69736,7 +69736,7 @@
         <v>1</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>216.4971974543634</v>
+        <v>216.6045405316782</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>1</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>221.7471974543634</v>
+        <v>221.8545405316782</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -69942,7 +69942,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -70045,7 +70045,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -70148,7 +70148,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -70251,7 +70251,7 @@
         <v>1</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -70354,7 +70354,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -70457,7 +70457,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD44" t="n">
         <v>1</v>
@@ -70560,7 +70560,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -70663,7 +70663,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>327.8096974543634</v>
+        <v>327.9170405316783</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -70869,7 +70869,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>339.4971974543634</v>
+        <v>339.6045405316783</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -70972,7 +70972,7 @@
         <v>1</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>343.5076141210301</v>
+        <v>343.6149571983449</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -71075,7 +71075,7 @@
         <v>1</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>343.5076141210301</v>
+        <v>343.6149571983449</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -71178,7 +71178,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>347.7471974543634</v>
+        <v>347.8545405316783</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -71281,7 +71281,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -71384,7 +71384,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -71487,7 +71487,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -71761,7 +71761,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.5180307876967593</v>
+        <v>0.625373865011574</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -71864,7 +71864,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>1.518030787696759</v>
+        <v>1.625373865011574</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -71967,7 +71967,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.55969745436343</v>
+        <v>26.66704053167824</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -72070,7 +72070,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -72173,7 +72173,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>43.66386412103009</v>
+        <v>43.7712071983449</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -72276,7 +72276,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>44.51803078769676</v>
+        <v>44.62537386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -72379,7 +72379,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -72482,7 +72482,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>64.47636412103009</v>
+        <v>64.58370719834491</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
@@ -72585,7 +72585,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -72688,7 +72688,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -72791,7 +72791,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>104.4555307876968</v>
+        <v>104.5628738650116</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -72894,7 +72894,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -72997,7 +72997,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>145.6638641210301</v>
+        <v>145.7712071983449</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -73100,7 +73100,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>145.6638641210301</v>
+        <v>145.7712071983449</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -73203,7 +73203,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>158.7055307876968</v>
+        <v>158.8128738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -73306,7 +73306,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>158.7055307876968</v>
+        <v>158.8128738650116</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -73409,7 +73409,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>159.7055307876968</v>
+        <v>159.8128738650116</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -73512,7 +73512,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -73615,7 +73615,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>194.7055307876968</v>
+        <v>194.8128738650116</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -73718,7 +73718,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>222.7055307876968</v>
+        <v>222.8128738650116</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -73821,7 +73821,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>236.8096974543634</v>
+        <v>236.9170405316782</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -73924,7 +73924,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>334.6013641210301</v>
+        <v>334.7087071983449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -74027,7 +74027,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>334.7055307876968</v>
+        <v>334.8128738650116</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -74130,7 +74130,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>348.7055307876968</v>
+        <v>348.8128738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -74233,7 +74233,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>349.4971974543634</v>
+        <v>349.6045405316783</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>355.6013641210301</v>
+        <v>355.7087071983449</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
@@ -74610,7 +74610,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -74713,7 +74713,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>5.663864121030093</v>
+        <v>5.771207198344907</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -74816,7 +74816,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>25.70553078769676</v>
+        <v>25.81287386501157</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>25.70553078769676</v>
+        <v>25.81287386501157</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -75022,7 +75022,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>26.66386412103009</v>
+        <v>26.77120719834491</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -75125,7 +75125,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>38.45553078769676</v>
+        <v>38.56287386501157</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -75228,7 +75228,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>39.72636412103009</v>
+        <v>39.8337071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -75331,7 +75331,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>40.66386412103009</v>
+        <v>40.7712071983449</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -75434,7 +75434,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -75537,7 +75537,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>61.66386412103009</v>
+        <v>61.7712071983449</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -75640,7 +75640,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>64.47636412103009</v>
+        <v>64.58370719834491</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -75743,7 +75743,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>65.45553078769676</v>
+        <v>65.56287386501157</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>75.55969745436343</v>
+        <v>75.66704053167824</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -75949,7 +75949,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>96.66386412103009</v>
+        <v>96.77120719834491</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -76052,7 +76052,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>100.7680307876968</v>
+        <v>100.8753738650116</v>
       </c>
       <c r="AD16" t="n">
         <v>1</v>
@@ -76155,7 +76155,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>103.6638641210301</v>
+        <v>103.7712071983449</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -76258,7 +76258,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>110.6638641210301</v>
+        <v>110.7712071983449</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -76361,7 +76361,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -76464,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -76567,7 +76567,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -76670,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3" t="n">
-        <v>120.4763641210301</v>
+        <v>120.5837071983449</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -76773,7 +76773,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="3" t="n">
-        <v>121.4763641210301</v>
+        <v>121.5837071983449</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -76876,7 +76876,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="3" t="n">
-        <v>124.6638641210301</v>
+        <v>124.7712071983449</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -76979,7 +76979,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
@@ -77082,7 +77082,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="3" t="n">
-        <v>144.7055307876968</v>
+        <v>144.8128738650116</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -77185,7 +77185,7 @@
         <v>1</v>
       </c>
       <c r="AC27" s="3" t="n">
-        <v>159.8096974543634</v>
+        <v>159.9170405316783</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -77288,7 +77288,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -77391,7 +77391,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="3" t="n">
-        <v>166.7055307876968</v>
+        <v>166.8128738650116</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -77494,7 +77494,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="3" t="n">
-        <v>180.6013641210301</v>
+        <v>180.7087071983449</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -77597,7 +77597,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="3" t="n">
-        <v>180.7055307876968</v>
+        <v>180.8128738650116</v>
       </c>
       <c r="AD31" t="n">
         <v>1</v>
@@ -77700,7 +77700,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3" t="n">
-        <v>186.7471974543634</v>
+        <v>186.8545405316783</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -77803,7 +77803,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -77906,7 +77906,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -78009,7 +78009,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="3" t="n">
-        <v>199.5076141210301</v>
+        <v>199.6149571983449</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -78112,7 +78112,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="3" t="n">
-        <v>201.6013641210301</v>
+        <v>201.7087071983449</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -78215,7 +78215,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -78318,7 +78318,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="3" t="n">
-        <v>201.7055307876968</v>
+        <v>201.8128738650116</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -78421,7 +78421,7 @@
         <v>1</v>
       </c>
       <c r="AC39" s="3" t="n">
-        <v>215.7055307876968</v>
+        <v>215.8128738650116</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -78524,7 +78524,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="3" t="n">
-        <v>223.4971974543634</v>
+        <v>223.6045405316782</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -78627,7 +78627,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="3" t="n">
-        <v>229.7055307876968</v>
+        <v>229.8128738650116</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -78730,7 +78730,7 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3" t="n">
-        <v>230.5076141210301</v>
+        <v>230.6149571983449</v>
       </c>
       <c r="AD42" t="n">
         <v>1</v>
@@ -78833,7 +78833,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3" t="n">
-        <v>236.7055307876968</v>
+        <v>236.8128738650116</v>
       </c>
       <c r="AD43" t="n">
         <v>1</v>
@@ -78936,7 +78936,7 @@
         <v>0</v>
       </c>
       <c r="AC44" s="3" t="n">
-        <v>312.6430307876968</v>
+        <v>312.7503738650116</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -79039,7 +79039,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3" t="n">
-        <v>318.4971974543634</v>
+        <v>318.6045405316783</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -79142,7 +79142,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3" t="n">
-        <v>319.7471974543634</v>
+        <v>319.8545405316783</v>
       </c>
       <c r="AD46" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3" t="n">
-        <v>319.7680307876968</v>
+        <v>319.8753738650116</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -79348,7 +79348,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="3" t="n">
-        <v>320.8096974543634</v>
+        <v>320.9170405316783</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
@@ -79451,7 +79451,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="n">
-        <v>327.7055307876968</v>
+        <v>327.8128738650116</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -79554,7 +79554,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="n">
-        <v>332.4971974543634</v>
+        <v>332.6045405316783</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -79657,7 +79657,7 @@
         <v>0</v>
       </c>
       <c r="AC51" s="3" t="n">
-        <v>332.7055307876968</v>
+        <v>332.8128738650116</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -79760,7 +79760,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -79863,7 +79863,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="3" t="n">
-        <v>341.7055307876968</v>
+        <v>341.8128738650116</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -79966,7 +79966,7 @@
         <v>1</v>
       </c>
       <c r="AC54" s="3" t="n">
-        <v>344.5076141210301</v>
+        <v>344.6149571983449</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -80069,7 +80069,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="3" t="n">
-        <v>348.8096974543634</v>
+        <v>348.9170405316783</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -80172,7 +80172,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="3" t="n">
-        <v>355.7055307876968</v>
+        <v>355.8128738650116</v>
       </c>
       <c r="AD56" t="n">
         <v>0</v>
@@ -80446,7 +80446,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>19.66386412103009</v>
+        <v>19.77120719834491</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -80549,7 +80549,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>19.66386412103009</v>
+        <v>19.77120719834491</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -80652,7 +80652,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>26.66386412103009</v>
+        <v>26.77120719834491</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -80755,7 +80755,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>54.66386412103009</v>
+        <v>54.7712071983449</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -80858,7 +80858,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>60.70553078769676</v>
+        <v>60.81287386501157</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -80961,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>83.46594745436343</v>
+        <v>83.57329053167824</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -81064,7 +81064,7 @@
         <v>1</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>100.6638641210301</v>
+        <v>100.7712071983449</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -81167,7 +81167,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>117.6638641210301</v>
+        <v>117.7712071983449</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -81270,7 +81270,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="3" t="n">
-        <v>124.6638641210301</v>
+        <v>124.7712071983449</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -81373,7 +81373,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="3" t="n">
-        <v>159.7055307876968</v>
+        <v>159.8128738650116</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -81476,7 +81476,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="3" t="n">
-        <v>184.5180307876968</v>
+        <v>184.6253738650116</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -81579,7 +81579,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="3" t="n">
-        <v>187.7055307876968</v>
+        <v>187.8128738650116</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -81682,7 +81682,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>340.7471974543634</v>
+        <v>340.8545405316783</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -81785,7 +81785,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>345.4971974543634</v>
+        <v>345.6045405316783</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
